--- a/Team-Data/2012-13/1-6-2012-13.xlsx
+++ b/Team-Data/2012-13/1-6-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
@@ -756,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -795,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -956,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>20</v>
@@ -977,7 +1044,7 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>10</v>
@@ -989,7 +1056,7 @@
         <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>24</v>
@@ -1001,7 +1068,7 @@
         <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
@@ -1120,16 +1187,16 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1153,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>19</v>
@@ -1177,10 +1244,10 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -1212,85 +1279,85 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.273</v>
+        <v>0.25</v>
       </c>
       <c r="H5" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.423</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O5" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="S5" t="n">
+        <v>30</v>
+      </c>
+      <c r="T5" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="U5" t="n">
         <v>19.6</v>
       </c>
-      <c r="P5" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="R5" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="T5" t="n">
-        <v>42</v>
-      </c>
-      <c r="U5" t="n">
-        <v>19.4</v>
-      </c>
       <c r="V5" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
         <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="Z5" t="n">
         <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-7.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1302,25 +1369,25 @@
         <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
         <v>25</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
@@ -1329,28 +1396,28 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
@@ -1359,13 +1426,13 @@
         <v>15</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,13 +1554,13 @@
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1514,10 +1581,10 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
         <v>29</v>
@@ -1672,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
@@ -1705,13 +1772,13 @@
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV7" t="n">
         <v>21</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1872,7 +1939,7 @@
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>7</v>
@@ -1905,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -1940,70 +2007,70 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.556</v>
+        <v>0.543</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J9" t="n">
-        <v>84.59999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O9" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.679</v>
+        <v>0.68</v>
       </c>
       <c r="R9" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="S9" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T9" t="n">
-        <v>46.1</v>
+        <v>46.2</v>
       </c>
       <c r="U9" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="V9" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>6.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
         <v>20.6</v>
@@ -2012,40 +2079,40 @@
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
@@ -2060,37 +2127,37 @@
         <v>30</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
         <v>8</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.361</v>
+        <v>0.371</v>
       </c>
       <c r="H10" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J10" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O10" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P10" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="R10" t="n">
         <v>12.6</v>
@@ -2176,31 +2243,31 @@
         <v>20.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AA10" t="n">
         <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2209,10 +2276,10 @@
         <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2221,7 +2288,7 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
@@ -2233,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2245,28 +2312,28 @@
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
         <v>26</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AW10" t="n">
         <v>29</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2275,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2449,22 @@
         <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
       </c>
       <c r="AG11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
         <v>7</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>10</v>
@@ -2761,7 +2828,7 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
         <v>24</v>
@@ -2773,16 +2840,16 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>24</v>
@@ -2800,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2815,7 +2882,7 @@
         <v>12</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2958,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
@@ -3000,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.455</v>
+        <v>0.469</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J15" t="n">
         <v>81.09999999999999</v>
@@ -3059,16 +3126,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O15" t="n">
         <v>20.6</v>
       </c>
       <c r="P15" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="Q15" t="n">
         <v>0.6899999999999999</v>
@@ -3083,40 +3150,40 @@
         <v>45.8</v>
       </c>
       <c r="U15" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>19</v>
@@ -3125,7 +3192,7 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>22</v>
@@ -3155,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3164,16 +3231,16 @@
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>14</v>
@@ -3185,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.677</v>
+        <v>0.667</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>83</v>
       </c>
       <c r="K16" t="n">
-        <v>0.437</v>
+        <v>0.434</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
         <v>17.1</v>
@@ -3256,10 +3323,10 @@
         <v>0.802</v>
       </c>
       <c r="R16" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="S16" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
         <v>43.1</v>
@@ -3268,10 +3335,10 @@
         <v>20.7</v>
       </c>
       <c r="V16" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
@@ -3286,13 +3353,13 @@
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
         <v>7</v>
@@ -3310,10 +3377,10 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3328,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3337,37 +3404,37 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>13</v>
       </c>
       <c r="AU16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.719</v>
+        <v>0.71</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3414,10 +3481,10 @@
         <v>38.4</v>
       </c>
       <c r="J17" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.49</v>
+        <v>0.491</v>
       </c>
       <c r="L17" t="n">
         <v>8.5</v>
@@ -3426,58 +3493,58 @@
         <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.768</v>
+        <v>0.764</v>
       </c>
       <c r="R17" t="n">
         <v>8</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>39.1</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
         <v>22.3</v>
       </c>
       <c r="V17" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
         <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3492,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -3510,10 +3577,10 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3531,10 +3598,10 @@
         <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,13 +3610,13 @@
         <v>6</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
         <v>4</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3695,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3707,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV18" t="n">
         <v>12</v>
@@ -3728,7 +3795,7 @@
         <v>15</v>
       </c>
       <c r="BB18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>0.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3856,7 +3923,7 @@
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3880,10 +3947,10 @@
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -3898,7 +3965,7 @@
         <v>19</v>
       </c>
       <c r="AX19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>-5.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
         <v>28</v>
@@ -4032,10 +4099,10 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4047,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
         <v>6</v>
@@ -4059,13 +4126,13 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>20</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
@@ -4074,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
@@ -4089,7 +4156,7 @@
         <v>16</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>5.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4214,7 +4281,7 @@
         <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>8</v>
@@ -4244,13 +4311,13 @@
         <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.788</v>
+        <v>0.781</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4333,28 +4400,28 @@
         <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.401</v>
+        <v>0.406</v>
       </c>
       <c r="O22" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.845</v>
+        <v>0.843</v>
       </c>
       <c r="R22" t="n">
         <v>10.4</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U22" t="n">
         <v>21.8</v>
@@ -4366,7 +4433,7 @@
         <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
         <v>3.8</v>
@@ -4375,16 +4442,16 @@
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
         <v>105.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4402,7 +4469,7 @@
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4426,10 +4493,10 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>9</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>24</v>
@@ -4575,7 +4642,7 @@
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
         <v>21</v>
@@ -4620,7 +4687,7 @@
         <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4763,7 +4830,7 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4919,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="n">
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.343</v>
+        <v>0.353</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="J25" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L25" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M25" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="N25" t="n">
         <v>0.333</v>
@@ -4891,22 +4958,22 @@
         <v>19.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R25" t="n">
         <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="T25" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V25" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W25" t="n">
         <v>8</v>
@@ -4915,7 +4982,7 @@
         <v>5.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z25" t="n">
         <v>20.3</v>
@@ -4924,13 +4991,13 @@
         <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.1</v>
+        <v>-3.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
@@ -4942,10 +5009,10 @@
         <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ25" t="n">
         <v>2</v>
@@ -4954,10 +5021,10 @@
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="n">
         <v>27</v>
@@ -4978,31 +5045,31 @@
         <v>29</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>4</v>
       </c>
       <c r="AW25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY25" t="n">
         <v>14</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>12</v>
       </c>
       <c r="AZ25" t="n">
         <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -5121,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
@@ -5130,7 +5197,7 @@
         <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
@@ -5151,13 +5218,13 @@
         <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT26" t="n">
         <v>22</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
@@ -5333,10 +5400,10 @@
         <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
         <v>30</v>
@@ -5354,10 +5421,10 @@
         <v>9</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5576,7 @@
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5524,13 +5591,13 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW28" t="n">
         <v>6</v>
@@ -5539,7 +5606,7 @@
         <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.353</v>
+        <v>0.364</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J29" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
         <v>0.435</v>
@@ -5619,22 +5686,22 @@
         <v>22.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R29" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S29" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T29" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="U29" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V29" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
@@ -5646,31 +5713,31 @@
         <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA29" t="n">
         <v>19.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.8</v>
+        <v>-2.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
       </c>
       <c r="AF29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG29" t="n">
         <v>24</v>
       </c>
-      <c r="AG29" t="n">
-        <v>25</v>
-      </c>
       <c r="AH29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
         <v>22</v>
@@ -5679,7 +5746,7 @@
         <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5697,28 +5764,28 @@
         <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS29" t="n">
         <v>25</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>27</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
         <v>18</v>
@@ -5861,7 +5928,7 @@
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
         <v>20</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>5</v>
@@ -5894,13 +5961,13 @@
         <v>10</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>10</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" t="n">
-        <v>0.125</v>
+        <v>0.129</v>
       </c>
       <c r="H31" t="n">
         <v>49.1</v>
       </c>
       <c r="I31" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="J31" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.407</v>
+        <v>0.409</v>
       </c>
       <c r="L31" t="n">
         <v>6.4</v>
@@ -5974,31 +6041,31 @@
         <v>20.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="O31" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="P31" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.741</v>
+        <v>0.747</v>
       </c>
       <c r="R31" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S31" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U31" t="n">
         <v>20.7</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6007,28 +6074,28 @@
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>88.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6037,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6061,43 +6128,43 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-6-2012-13</t>
+          <t>2013-01-06</t>
         </is>
       </c>
     </row>
